--- a/物联网技术/汇总.xlsx
+++ b/物联网技术/汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\物联网技术\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105309F1-E78D-40BA-88AA-4C5EF2651CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4469C61A-C449-488D-BB19-1D9E9E34C752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
   <si>
     <t>原始序号</t>
   </si>
@@ -43,12 +43,6 @@
     <t>来源科目</t>
   </si>
   <si>
-    <t>原始图片</t>
-  </si>
-  <si>
-    <t>验证错误</t>
-  </si>
-  <si>
     <t>需人工检查</t>
   </si>
   <si>
@@ -61,12 +55,6 @@
     <t>A. ZigBee网络 | B. GPRS网络 | C. CDMA | D. Internet</t>
   </si>
   <si>
-    <t>智能信息检索</t>
-  </si>
-  <si>
-    <t>题目中提到的"精细农业系统基于（ABD）等实现短程、远程监控"中的括号内容"ABD"与单选题的性质不符，单选题应只有一个正确答案。此外，题目描述中的括号内容"ABD"与选项中的"A"作为答案不一致。</t>
-  </si>
-  <si>
     <t>判断题</t>
   </si>
   <si>
@@ -76,21 +64,6 @@
     <t>A. 对 | B. 错</t>
   </si>
   <si>
-    <t>1. 题目中的答案标记为"正确"，但选项是"A. 对"和"B. 错"，不一致。
-2. 题目括号内已给出答案提示"( T )"，与选项格式不匹配。
-3. 判断题通常应使用"对/错"或"正确/错误"的统一格式。</t>
-  </si>
-  <si>
-    <t>1. 题目中的答案标记为"（ T ）"，但选项是"A. 对"和"B. 错"，不一致。
-2. 给定的答案是"正确"，但选项中没有直接匹配的选项（应为"A. 对"对应"正确"）。
-3. 判断题通常应使用"正确"/"错误"或"对"/"错"的选项，但需要统一格式。</t>
-  </si>
-  <si>
-    <t>1. 题目中的答案格式不正确，题目中使用了"（ T ）"表示答案，但选项中使用了"A. 对"和"B. 错"，这会导致混淆。
-2. 题目中给出的答案是"正确"，但选项中并没有直接对应的选项，应该与选项中的表述一致。
-3. 判断题通常应该使用"正确"和"错误"或"对"和"错"作为选项，且应该保持一致。</t>
-  </si>
-  <si>
     <t>有效</t>
   </si>
   <si>
@@ -606,6 +579,10 @@
   </si>
   <si>
     <t>数据处理、数据挖掘和知识评估与表示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联网技术</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -668,10 +645,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -974,11 +952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -988,11 +966,9 @@
     <col min="5" max="5" width="40" customWidth="1"/>
     <col min="6" max="6" width="60" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,372 +990,350 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G3" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G4" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G5" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
       <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1387,22 +1341,22 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1410,22 +1364,22 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
+        <v>43</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1433,22 +1387,22 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
       <c r="F19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1456,19 +1410,19 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E20" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
+        <v>171</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1476,19 +1430,19 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
+        <v>169</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1496,19 +1450,19 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1516,19 +1470,19 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1536,19 +1490,19 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1556,19 +1510,19 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1576,19 +1530,19 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1596,19 +1550,19 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" t="s">
         <v>53</v>
       </c>
-      <c r="D27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
+      <c r="G27" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -1616,19 +1570,19 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -1636,19 +1590,19 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
+        <v>162</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -1656,22 +1610,22 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
         <v>13</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -1679,22 +1633,22 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
         <v>13</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -1702,22 +1656,22 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
         <v>13</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1725,22 +1679,22 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
         <v>13</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -1748,22 +1702,22 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s">
         <v>13</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -1771,22 +1725,22 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
         <v>13</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -1794,22 +1748,22 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
         <v>13</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -1817,22 +1771,22 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
         <v>13</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -1840,22 +1794,22 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
         <v>13</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -1863,22 +1817,22 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
         <v>13</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -1886,22 +1840,22 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
+        <v>63</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -1909,22 +1863,22 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -1932,22 +1886,22 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" t="s">
         <v>21</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" t="s">
-        <v>28</v>
-      </c>
       <c r="F42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
+        <v>67</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -1955,22 +1909,22 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
+        <v>69</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -1978,22 +1932,22 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -2001,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" t="s">
         <v>21</v>
       </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" t="s">
-        <v>28</v>
-      </c>
       <c r="F45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
+        <v>73</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -2024,22 +1978,22 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
+        <v>75</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -2047,22 +2001,22 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
+        <v>77</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -2070,22 +2024,22 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -2093,22 +2047,22 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
+        <v>81</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -2116,22 +2070,22 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
+        <v>83</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -2139,22 +2093,22 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
+        <v>85</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -2162,22 +2116,22 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
+        <v>87</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -2185,22 +2139,22 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
+        <v>89</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -2208,19 +2162,19 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
+        <v>90</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -2228,19 +2182,19 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
+        <v>91</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -2248,19 +2202,19 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
+        <v>92</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -2268,19 +2222,19 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
+        <v>93</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -2288,19 +2242,19 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
+        <v>94</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -2308,19 +2262,19 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>102</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
+        <v>95</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -2328,19 +2282,19 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
+        <v>96</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -2348,22 +2302,22 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
         <v>13</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -2371,22 +2325,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
         <v>13</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -2394,22 +2348,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
         <v>13</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -2417,22 +2371,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
         <v>13</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -2440,22 +2394,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s">
         <v>13</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -2463,22 +2417,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
         <v>13</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -2486,22 +2440,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s">
         <v>13</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -2509,22 +2463,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>109</v>
-      </c>
-      <c r="G68" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -2532,22 +2486,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" t="s">
         <v>21</v>
       </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" t="s">
-        <v>28</v>
-      </c>
       <c r="F69" t="s">
-        <v>111</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
+        <v>104</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -2555,22 +2509,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>113</v>
-      </c>
-      <c r="G70" t="s">
-        <v>13</v>
+        <v>106</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -2578,22 +2532,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>115</v>
-      </c>
-      <c r="G71" t="s">
-        <v>13</v>
+        <v>108</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -2601,22 +2555,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>117</v>
-      </c>
-      <c r="G72" t="s">
-        <v>13</v>
+        <v>110</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -2624,22 +2578,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>119</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
+        <v>112</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -2647,22 +2601,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>121</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
+        <v>114</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -2670,22 +2624,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
+        <v>116</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -2693,22 +2647,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>125</v>
-      </c>
-      <c r="G76" t="s">
-        <v>13</v>
+        <v>118</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -2716,22 +2670,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>127</v>
-      </c>
-      <c r="G77" t="s">
-        <v>13</v>
+        <v>120</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -2739,22 +2693,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" t="s">
         <v>21</v>
       </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" t="s">
-        <v>28</v>
-      </c>
       <c r="F78" t="s">
-        <v>129</v>
-      </c>
-      <c r="G78" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -2762,22 +2716,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" t="s">
         <v>21</v>
       </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" t="s">
-        <v>28</v>
-      </c>
       <c r="F79" t="s">
-        <v>131</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
+        <v>124</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -2785,22 +2739,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80" t="s">
         <v>21</v>
       </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>132</v>
-      </c>
-      <c r="E80" t="s">
-        <v>28</v>
-      </c>
       <c r="F80" t="s">
-        <v>133</v>
-      </c>
-      <c r="G80" t="s">
-        <v>13</v>
+        <v>126</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -2808,22 +2762,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E81" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>135</v>
-      </c>
-      <c r="G81" t="s">
-        <v>13</v>
+        <v>128</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
@@ -2831,19 +2785,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E82" t="s">
-        <v>136</v>
-      </c>
-      <c r="G82" t="s">
-        <v>13</v>
+        <v>129</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -2851,19 +2805,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E83" t="s">
-        <v>181</v>
-      </c>
-      <c r="G83" t="s">
-        <v>13</v>
+        <v>174</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -2871,19 +2825,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E84" t="s">
-        <v>137</v>
-      </c>
-      <c r="G84" t="s">
-        <v>13</v>
+        <v>130</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -2891,19 +2845,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D85" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E85" t="s">
-        <v>138</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
+        <v>131</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -2911,19 +2865,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E86" t="s">
-        <v>182</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
+        <v>175</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -2931,20 +2885,26 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E87" t="s">
-        <v>139</v>
-      </c>
-      <c r="G87" t="s">
-        <v>13</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G89" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
